--- a/antwoordblad-assessment-praktijk.xlsx
+++ b/antwoordblad-assessment-praktijk.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t xml:space="preserve">Relational data storage Asessment Praktijk</t>
   </si>
@@ -31,7 +31,46 @@
     <t xml:space="preserve">Los antwoord</t>
   </si>
   <si>
+    <t xml:space="preserve">Fout</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jubarnett@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frantisekw@jetbrains.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaking the Rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUNTAIN VIEW USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robebr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peacock</t>
   </si>
 </sst>
 </file>
@@ -42,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -78,8 +117,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,8 +140,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC9211E"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FFF10D0C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF0041"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,6 +236,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,7 +248,23 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,7 +281,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -207,7 +291,7 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFBF0041"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -244,7 +328,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -261,21 +345,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.27734375" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.28125" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="25.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="14.28"/>
   </cols>
   <sheetData>
@@ -316,337 +400,399 @@
       <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="n">
+        <v>375418</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1" display="jubarnett@gmail.com"/>
+    <hyperlink ref="H16" r:id="rId2" display="frantisekw@jetbrains.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
